--- a/results/test_GROUND_freeW_ubtf/test_GROUND_freeW_ubtf.xlsx
+++ b/results/test_GROUND_freeW_ubtf/test_GROUND_freeW_ubtf.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thin\02_Code\Matlab\CryoGRID\2021-0605_CryoGrid\CryoGridTesting\results\test_GROUND_freeW_ubtf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999DAD04-DEC8-413F-A3FC-1ED89CF59974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0FA86E-3DA2-498D-BD48-B1DD26DEE6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="6285" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="134">
   <si>
     <t>CLASS_END</t>
   </si>
@@ -258,9 +258,6 @@
     <t>organic</t>
   </si>
   <si>
-    <t>field_capacity</t>
-  </si>
-  <si>
     <t>STRATIGRAPHY_STATVAR</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>CG_Beaufort_81_880_short_crop_1yr.mat</t>
   </si>
   <si>
-    <t>FORCING_tair_precip</t>
-  </si>
-  <si>
     <t>GROUND_freeW_ubtf</t>
   </si>
   <si>
@@ -402,42 +396,6 @@
     <t>./forcing/</t>
   </si>
   <si>
-    <t>SNOW_crocus_bucketW_seb</t>
-  </si>
-  <si>
-    <t>slope</t>
-  </si>
-  <si>
-    <t>SW_spectral_range1</t>
-  </si>
-  <si>
-    <t>SW_spectral_range2</t>
-  </si>
-  <si>
-    <t>epsilon</t>
-  </si>
-  <si>
-    <t>surface emissivity</t>
-  </si>
-  <si>
-    <t>z0</t>
-  </si>
-  <si>
-    <t>roughness length</t>
-  </si>
-  <si>
-    <t>rs</t>
-  </si>
-  <si>
-    <t>timescale_winddrift</t>
-  </si>
-  <si>
-    <t>[hours]</t>
-  </si>
-  <si>
-    <t>hydraulicConductivity</t>
-  </si>
-  <si>
     <t>swe_per_cell</t>
   </si>
   <si>
@@ -454,6 +412,21 @@
   </si>
   <si>
     <t>restart_last_timestep_xlsx.mat</t>
+  </si>
+  <si>
+    <t>FORCING_tair_precip_old</t>
+  </si>
+  <si>
+    <t>SNOW_simple_ubtf_mf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target SWE regulating grid cell size, 0.01m is ca. 3cm </t>
+  </si>
+  <si>
+    <t>melt_threshold</t>
+  </si>
+  <si>
+    <t>density</t>
   </si>
 </sst>
 </file>
@@ -505,16 +478,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,15 +781,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -829,7 +797,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -837,7 +805,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -849,16 +817,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -874,13 +842,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,27 +919,27 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>96</v>
+      <c r="A16" t="s">
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>97</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
@@ -981,35 +949,35 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>99</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>101</v>
+      <c r="A20" t="s">
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>100</v>
+      <c r="A21" t="s">
+        <v>99</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>102</v>
+      <c r="A22" t="s">
+        <v>101</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
@@ -1019,16 +987,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>103</v>
+      <c r="A23" t="s">
+        <v>102</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>105</v>
+      <c r="A24" t="s">
+        <v>104</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -1037,7 +1005,7 @@
         <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -1047,8 +1015,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>104</v>
+      <c r="A25" t="s">
+        <v>103</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -1064,24 +1032,24 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>106</v>
       </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>107</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -1089,13 +1057,13 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>109</v>
+      <c r="A29" t="s">
+        <v>108</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -1103,28 +1071,27 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,7 +1100,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1142,12 +1109,12 @@
         <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -1194,10 +1161,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1206,10 +1173,10 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1218,12 +1185,12 @@
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -1231,7 +1198,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1243,10 +1210,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1255,7 +1222,7 @@
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
@@ -1263,7 +1230,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
@@ -1274,7 +1241,7 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -1282,10 +1249,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1440,7 +1407,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
@@ -1452,7 +1419,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1470,16 +1437,16 @@
       <c r="B73" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1549,14 +1516,14 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1588,8 +1555,8 @@
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>114</v>
+      <c r="C87" t="s">
+        <v>112</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1599,19 +1566,14 @@
       <c r="B88" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="6"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90" s="7"/>
+        <v>130</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -1620,17 +1582,16 @@
       <c r="B91">
         <v>1</v>
       </c>
-      <c r="C91" s="7"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>114</v>
+      <c r="C92" t="s">
+        <v>112</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
@@ -1638,7 +1599,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
@@ -1657,10 +1618,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,21 +1634,21 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1744,22 +1705,22 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
+      <c r="A107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B109" s="1">
         <v>1</v>
@@ -1767,13 +1728,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B111" t="s">
         <v>14</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>82</v>
+      <c r="C111" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D111" t="s">
         <v>5</v>
@@ -1830,7 +1791,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1838,23 +1799,20 @@
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>93</v>
+      <c r="B122" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B123" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="3" t="s">
+      <c r="B125" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1862,7 +1820,7 @@
       <c r="A126" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126">
         <v>3600</v>
       </c>
     </row>
@@ -1870,7 +1828,7 @@
       <c r="A127" t="s">
         <v>4</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127">
         <v>50000</v>
       </c>
     </row>
@@ -1878,13 +1836,9 @@
       <c r="A128" t="s">
         <v>0</v>
       </c>
-      <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="3"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
@@ -1899,12 +1853,12 @@
         <v>1</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
@@ -1917,200 +1871,117 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B137">
-        <v>0.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B138">
-        <v>0.21</v>
+        <v>0.01</v>
+      </c>
+      <c r="E138" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="B139">
-        <v>0.99</v>
+        <v>3600</v>
       </c>
       <c r="C139">
-        <v>0.99</v>
+        <v>3600</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="E139" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="B140">
-        <v>1E-3</v>
+        <v>50000</v>
       </c>
       <c r="C140">
-        <v>1E-3</v>
+        <v>50000</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="E140" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>133</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>134</v>
-      </c>
-      <c r="B142">
-        <v>48</v>
-      </c>
-      <c r="D142" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>77</v>
-      </c>
-      <c r="B143">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>136</v>
-      </c>
-      <c r="B144" s="8">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>137</v>
-      </c>
-      <c r="B145">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>3</v>
-      </c>
-      <c r="B146">
-        <v>3600</v>
-      </c>
-      <c r="C146">
-        <v>3600</v>
-      </c>
-      <c r="D146" t="s">
-        <v>138</v>
-      </c>
-      <c r="E146" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147">
-        <v>50000</v>
-      </c>
-      <c r="C147">
-        <v>50000</v>
-      </c>
-      <c r="D147" t="s">
-        <v>140</v>
-      </c>
-      <c r="E147" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="B147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>60</v>
+      </c>
+      <c r="B150">
+        <v>0.25</v>
+      </c>
+      <c r="D150" t="s">
         <v>85</v>
       </c>
-      <c r="B154" s="2">
-        <v>1</v>
-      </c>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>60</v>
-      </c>
-      <c r="B157" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C157" s="3"/>
-      <c r="D157" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
